--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999986202830384</v>
+        <v>0.9999995250420277</v>
       </c>
       <c r="E2">
-        <v>0.9999986202830384</v>
+        <v>0.9999995250420277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5993480655645854</v>
+        <v>0.09155899752677703</v>
       </c>
       <c r="E3">
-        <v>0.5993480655645854</v>
+        <v>0.09155899752677703</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5.098947356495304E-05</v>
+        <v>2.062509513299652E-05</v>
       </c>
       <c r="E4">
-        <v>5.098947356495304E-05</v>
+        <v>2.062509513299652E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.07992266836934E-21</v>
+        <v>3.63018590281252E-32</v>
       </c>
       <c r="E5">
-        <v>2.07992266836934E-21</v>
+        <v>3.63018590281252E-32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999966527300627</v>
+        <v>0.9999999157632988</v>
       </c>
       <c r="E7">
-        <v>3.347269937337138E-06</v>
+        <v>8.423670116997073E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000235550664988269</v>
+        <v>1.218410908539108E-05</v>
       </c>
       <c r="E8">
-        <v>0.9997644493350117</v>
+        <v>0.9999878158909146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.100609333471287</v>
+        <v>0.02422699046677796</v>
       </c>
       <c r="E9">
-        <v>0.899390666528713</v>
+        <v>0.975773009533222</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -579,16 +579,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9519746450880729</v>
+        <v>0.3772118311264953</v>
       </c>
       <c r="E11">
-        <v>0.04802535491192705</v>
+        <v>0.6227881688735046</v>
       </c>
       <c r="F11">
-        <v>6.554538726806641</v>
+        <v>11.28780937194824</v>
       </c>
       <c r="G11">
         <v>0.5</v>
